--- a/public/discussion/POS_Table_Structure (2).xlsx
+++ b/public/discussion/POS_Table_Structure (2).xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pos_sale" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="146">
   <si>
     <t>Column Name</t>
   </si>
@@ -499,9 +500,6 @@
     <t>&lt;- Disc apply only combi of Item &amp; Qty define like (1+1=55). Without combi extra Qty not getting disc.</t>
   </si>
   <si>
-    <t>yyyy0000001</t>
-  </si>
-  <si>
     <t>system date</t>
   </si>
   <si>
@@ -527,6 +525,39 @@
   </si>
   <si>
     <t>&lt;- If fix rate more than sale rate then item disc always zero (0).</t>
+  </si>
+  <si>
+    <t>item_master table -&gt; tax_code  (taxmaster) calculation tax_percent</t>
+  </si>
+  <si>
+    <t>yyyy0000001   (v_no= bill_no application view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> enter means user  enter value</t>
+  </si>
+  <si>
+    <t>payment charge from payment master(charge_per) and caculate on mrp and sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">requirement- </t>
+  </si>
+  <si>
+    <t>minimum 5 db</t>
+  </si>
+  <si>
+    <t>website minimum 5</t>
+  </si>
+  <si>
+    <t>subdomain</t>
+  </si>
+  <si>
+    <t>Email subdomain</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
 </sst>
 </file>
@@ -1190,6 +1221,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1226,44 +1295,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1575,7 +1606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1585,9 +1616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,35 +1660,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="124" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="122"/>
-      <c r="I1" s="110" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="110"/>
+      <c r="I1" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="112"/>
-      <c r="S1" s="113" t="s">
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="126"/>
+      <c r="S1" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="115"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="129"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -1678,7 +1709,7 @@
       <c r="F2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="123"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="10"/>
       <c r="I2" s="18" t="s">
         <v>0</v>
@@ -1748,7 +1779,7 @@
       <c r="F3" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="124"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="11"/>
       <c r="I3" s="19" t="s">
         <v>18</v>
@@ -1818,7 +1849,7 @@
       <c r="F4" s="83">
         <v>1</v>
       </c>
-      <c r="G4" s="124"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="11"/>
       <c r="I4" s="9" t="s">
         <v>31</v>
@@ -1895,8 +1926,8 @@
       <c r="F5" s="83">
         <v>1</v>
       </c>
-      <c r="G5" s="124" t="s">
-        <v>126</v>
+      <c r="G5" s="112" t="s">
+        <v>136</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="21" t="s">
@@ -1973,8 +2004,8 @@
       <c r="F6" s="84">
         <v>44573</v>
       </c>
-      <c r="G6" s="125" t="s">
-        <v>127</v>
+      <c r="G6" s="113" t="s">
+        <v>126</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="21" t="s">
@@ -2052,7 +2083,7 @@
       <c r="F7" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="124"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="11"/>
       <c r="I7" s="21" t="s">
         <v>21</v>
@@ -2133,7 +2164,7 @@
       <c r="F8" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="124"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="11"/>
       <c r="I8" s="21" t="s">
         <v>37</v>
@@ -2175,8 +2206,8 @@
       <c r="Y8" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="Z8" s="135" t="s">
-        <v>134</v>
+      <c r="Z8" s="123" t="s">
+        <v>133</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>48</v>
@@ -2209,7 +2240,7 @@
       <c r="F9" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="124"/>
+      <c r="G9" s="112"/>
       <c r="H9" s="11"/>
       <c r="I9" s="21" t="s">
         <v>38</v>
@@ -2282,8 +2313,8 @@
       <c r="F10" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="124" t="s">
-        <v>128</v>
+      <c r="G10" s="112" t="s">
+        <v>127</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="21" t="s">
@@ -2326,6 +2357,9 @@
       <c r="Y10" s="61">
         <v>0</v>
       </c>
+      <c r="Z10" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="11" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -2342,7 +2376,7 @@
       <c r="F11" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="124"/>
+      <c r="G11" s="112"/>
       <c r="H11" s="11"/>
       <c r="I11" s="21" t="s">
         <v>42</v>
@@ -2429,7 +2463,7 @@
       <c r="F12" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="124"/>
+      <c r="G12" s="112"/>
       <c r="H12" s="13"/>
       <c r="I12" s="21" t="s">
         <v>47</v>
@@ -2505,7 +2539,7 @@
       <c r="F13" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="124"/>
+      <c r="G13" s="112"/>
       <c r="H13" s="13"/>
       <c r="I13" s="21" t="s">
         <v>48</v>
@@ -2546,7 +2580,7 @@
       <c r="F14" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="124"/>
+      <c r="G14" s="112"/>
       <c r="H14" s="13"/>
       <c r="I14" s="21" t="s">
         <v>116</v>
@@ -2619,7 +2653,7 @@
       <c r="F15" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="124"/>
+      <c r="G15" s="112"/>
       <c r="H15" s="11"/>
       <c r="I15" s="21" t="s">
         <v>41</v>
@@ -2684,8 +2718,8 @@
       <c r="F16" s="83">
         <v>1</v>
       </c>
-      <c r="G16" s="124" t="s">
-        <v>129</v>
+      <c r="G16" s="112" t="s">
+        <v>128</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="56" t="s">
@@ -2715,8 +2749,8 @@
       <c r="Q16" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="R16" s="134" t="s">
-        <v>133</v>
+      <c r="R16" s="122" t="s">
+        <v>132</v>
       </c>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
@@ -2736,12 +2770,12 @@
         <v>4</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="124"/>
+      <c r="G17" s="112"/>
       <c r="H17" s="11"/>
       <c r="I17" s="56" t="s">
         <v>55</v>
@@ -2773,20 +2807,20 @@
         <v>0.19999999999999929</v>
       </c>
       <c r="R17" s="95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AF17" s="119">
+      <c r="AF17" s="133">
         <f>AF15+AH15+AJ15</f>
         <v>252.22000000000003</v>
       </c>
-      <c r="AG17" s="119"/>
-      <c r="AH17" s="119"/>
-      <c r="AI17" s="119"/>
-      <c r="AJ17" s="119"/>
-      <c r="AK17" s="119"/>
+      <c r="AG17" s="133"/>
+      <c r="AH17" s="133"/>
+      <c r="AI17" s="133"/>
+      <c r="AJ17" s="133"/>
+      <c r="AK17" s="133"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -2803,7 +2837,7 @@
       <c r="F18" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="124"/>
+      <c r="G18" s="112"/>
       <c r="H18" s="11"/>
       <c r="I18" s="59" t="s">
         <v>57</v>
@@ -2824,10 +2858,10 @@
       <c r="O18" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="116" t="s">
+      <c r="P18" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="117"/>
+      <c r="Q18" s="131"/>
       <c r="R18" s="106" t="s">
         <v>125</v>
       </c>
@@ -2849,7 +2883,7 @@
       <c r="F19" s="83">
         <v>2</v>
       </c>
-      <c r="G19" s="124"/>
+      <c r="G19" s="112"/>
       <c r="H19" s="11"/>
       <c r="I19" s="59" t="s">
         <v>43</v>
@@ -2883,15 +2917,15 @@
       <c r="AE19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF19" s="120">
+      <c r="AF19" s="134">
         <f>(AF17*5)/100</f>
         <v>12.611000000000001</v>
       </c>
-      <c r="AG19" s="120"/>
-      <c r="AH19" s="120"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="120"/>
-      <c r="AK19" s="120"/>
+      <c r="AG19" s="134"/>
+      <c r="AH19" s="134"/>
+      <c r="AI19" s="134"/>
+      <c r="AJ19" s="134"/>
+      <c r="AK19" s="134"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -2908,7 +2942,7 @@
       <c r="F20" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="124"/>
+      <c r="G20" s="112"/>
       <c r="H20" s="15"/>
       <c r="I20" s="21" t="s">
         <v>106</v>
@@ -2979,7 +3013,7 @@
       <c r="F21" s="83">
         <v>2</v>
       </c>
-      <c r="G21" s="124"/>
+      <c r="G21" s="112"/>
       <c r="H21" s="15"/>
       <c r="I21" s="21" t="s">
         <v>61</v>
@@ -3044,7 +3078,7 @@
         <f>(F24-F28+F29+F30)+F23</f>
         <v>635</v>
       </c>
-      <c r="G22" s="126"/>
+      <c r="G22" s="114"/>
       <c r="H22" s="15"/>
       <c r="I22" s="21" t="s">
         <v>44</v>
@@ -3068,6 +3102,9 @@
       </c>
       <c r="Q22" s="71">
         <v>18</v>
+      </c>
+      <c r="R22" t="s">
+        <v>135</v>
       </c>
       <c r="Y22" s="17"/>
     </row>
@@ -3087,7 +3124,7 @@
         <f>ROUND((F24-F28+F29+F30),0)-(F24-F28+F29+F30)</f>
         <v>-7.999999999992724E-2</v>
       </c>
-      <c r="G23" s="127"/>
+      <c r="G23" s="115"/>
       <c r="H23" s="15"/>
       <c r="I23" s="21" t="s">
         <v>45</v>
@@ -3120,15 +3157,15 @@
       <c r="AE23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AF23" s="121">
+      <c r="AF23" s="135">
         <f>AF21+AH21+AJ21</f>
         <v>239.60899999999998</v>
       </c>
-      <c r="AG23" s="120"/>
-      <c r="AH23" s="120"/>
-      <c r="AI23" s="120"/>
-      <c r="AJ23" s="120"/>
-      <c r="AK23" s="120"/>
+      <c r="AG23" s="134"/>
+      <c r="AH23" s="134"/>
+      <c r="AI23" s="134"/>
+      <c r="AJ23" s="134"/>
+      <c r="AK23" s="134"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -3146,8 +3183,8 @@
         <f>SUM(N20:Q20)</f>
         <v>631.4799999999999</v>
       </c>
-      <c r="G24" s="128" t="s">
-        <v>132</v>
+      <c r="G24" s="116" t="s">
+        <v>131</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="62" t="s">
@@ -3196,7 +3233,7 @@
         <f>SUM(N14:Q14)</f>
         <v>672.4</v>
       </c>
-      <c r="G25" s="128"/>
+      <c r="G25" s="116"/>
       <c r="I25" s="64" t="s">
         <v>104</v>
       </c>
@@ -3242,8 +3279,8 @@
       <c r="AK25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AL25" s="118"/>
-      <c r="AM25" s="118"/>
+      <c r="AL25" s="132"/>
+      <c r="AM25" s="132"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
@@ -3261,7 +3298,7 @@
         <f>SUM(N17:Q17)</f>
         <v>14.519999999999998</v>
       </c>
-      <c r="G26" s="129"/>
+      <c r="G26" s="117"/>
       <c r="I26" s="66" t="s">
         <v>46</v>
       </c>
@@ -3320,7 +3357,7 @@
         <f>SUM(N19:Q19)</f>
         <v>26.400000000000006</v>
       </c>
-      <c r="G27" s="130"/>
+      <c r="G27" s="118"/>
       <c r="I27" s="72" t="s">
         <v>54</v>
       </c>
@@ -3367,7 +3404,7 @@
         <f>(F25-F26-F27)*F19/100</f>
         <v>12.6296</v>
       </c>
-      <c r="G28" s="131"/>
+      <c r="G28" s="119"/>
       <c r="I28" s="76" t="s">
         <v>107</v>
       </c>
@@ -3435,7 +3472,9 @@
         <f>(F25-F26-F27)*F21/100</f>
         <v>12.6296</v>
       </c>
-      <c r="G29" s="132"/>
+      <c r="G29" s="120" t="s">
+        <v>137</v>
+      </c>
       <c r="AE29" s="2" t="s">
         <v>61</v>
       </c>
@@ -3471,7 +3510,7 @@
         <f>SUM(X10:Y10)</f>
         <v>3.6</v>
       </c>
-      <c r="G30" s="133"/>
+      <c r="G30" s="121"/>
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
@@ -3489,7 +3528,7 @@
       <c r="F31" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="124"/>
+      <c r="G31" s="112"/>
     </row>
     <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="107" t="s">
@@ -3506,7 +3545,7 @@
       <c r="F32" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="124"/>
+      <c r="G32" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3522,4 +3561,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/discussion/POS_Table_Structure (2).xlsx
+++ b/public/discussion/POS_Table_Structure (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="pos_sale" sheetId="5" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>gstin</t>
   </si>
   <si>
-    <t>bill_type</t>
-  </si>
-  <si>
     <t>gl_code</t>
   </si>
   <si>
@@ -558,6 +555,9 @@
   </si>
   <si>
     <t>Storage</t>
+  </si>
+  <si>
+    <t>is_online</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1616,9 +1616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,7 +1661,7 @@
   <sheetData>
     <row r="1" spans="1:37" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -1670,7 +1670,7 @@
       <c r="F1" s="126"/>
       <c r="G1" s="110"/>
       <c r="I1" s="124" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J1" s="125"/>
       <c r="K1" s="125"/>
@@ -1681,7 +1681,7 @@
       <c r="P1" s="125"/>
       <c r="Q1" s="126"/>
       <c r="S1" s="127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T1" s="128"/>
       <c r="U1" s="128"/>
@@ -1704,10 +1704,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="111"/>
       <c r="H2" s="10"/>
@@ -1724,19 +1724,19 @@
         <v>3</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="P2" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S2" s="18" t="s">
         <v>0</v>
@@ -1751,16 +1751,16 @@
         <v>3</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="18" t="s">
-        <v>98</v>
-      </c>
       <c r="AA2" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB2" s="35"/>
     </row>
@@ -1777,7 +1777,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="112"/>
       <c r="H3" s="11"/>
@@ -1793,16 +1793,16 @@
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>18</v>
@@ -1816,22 +1816,22 @@
       <c r="V3" s="27"/>
       <c r="W3" s="26"/>
       <c r="X3" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA3" s="90" t="s">
         <v>18</v>
       </c>
       <c r="AF3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH3" t="s">
         <v>82</v>
       </c>
-      <c r="AH3" t="s">
-        <v>83</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="AB4" s="96"/>
       <c r="AE4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="2">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="21" t="s">
@@ -1974,7 +1974,7 @@
         <v>19</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF5" s="2">
         <v>2</v>
@@ -2005,7 +2005,7 @@
         <v>44573</v>
       </c>
       <c r="G6" s="113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="21" t="s">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="AB6" s="16"/>
       <c r="AE6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF6" s="2">
         <v>50</v>
@@ -2081,7 +2081,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="112"/>
       <c r="H7" s="11"/>
@@ -2097,16 +2097,16 @@
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
       <c r="N7" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S7" s="21" t="s">
         <v>21</v>
@@ -2120,17 +2120,17 @@
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y7" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA7" s="94" t="s">
         <v>21</v>
       </c>
       <c r="AB7" s="16"/>
       <c r="AE7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF7" s="2">
         <v>32</v>
@@ -2156,18 +2156,18 @@
         <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="83" t="s">
         <v>49</v>
-      </c>
-      <c r="F8" s="83" t="s">
-        <v>50</v>
       </c>
       <c r="G8" s="112"/>
       <c r="H8" s="11"/>
       <c r="I8" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="22">
         <v>5</v>
@@ -2190,27 +2190,27 @@
         <v>4</v>
       </c>
       <c r="S8" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T8" s="2">
         <v>3</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y8" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z8" s="123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF8" s="2">
         <v>45</v>
@@ -2238,12 +2238,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="112"/>
       <c r="H9" s="11"/>
       <c r="I9" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="22">
         <v>6</v>
@@ -2266,7 +2266,7 @@
         <v>87648754</v>
       </c>
       <c r="S9" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -2280,7 +2280,7 @@
         <v>335</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF9" s="2">
         <f>AF8*AF5</f>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5">
         <v>7</v>
@@ -2311,14 +2311,14 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="22">
         <v>7</v>
@@ -2341,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" s="22">
         <v>6</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
@@ -2374,12 +2374,12 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="112"/>
       <c r="H11" s="11"/>
       <c r="I11" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="22">
         <v>8</v>
@@ -2402,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="S11" s="100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T11" s="101">
         <v>5</v>
@@ -2420,28 +2420,28 @@
         <v>335</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF11" s="2">
         <f>2*AF5</f>
         <v>4</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH11" s="2">
         <f>(AH9*3)/100</f>
         <v>2.64</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ11" s="2">
         <f>(AJ9*3)/100</f>
         <v>2.64</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2458,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="83" t="s">
         <v>4</v>
@@ -2466,7 +2466,7 @@
       <c r="G12" s="112"/>
       <c r="H12" s="13"/>
       <c r="I12" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="22">
         <v>9</v>
@@ -2489,7 +2489,7 @@
         <v>6.72</v>
       </c>
       <c r="S12" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T12" s="34">
         <v>7</v>
@@ -2500,13 +2500,13 @@
       <c r="V12" s="34"/>
       <c r="W12" s="34"/>
       <c r="X12" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y12" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF12" s="2">
         <f>AF9-AF11</f>
@@ -2537,12 +2537,12 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="112"/>
       <c r="H13" s="13"/>
       <c r="I13" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" s="22">
         <v>10</v>
@@ -2578,12 +2578,12 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="112"/>
       <c r="H14" s="13"/>
       <c r="I14" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J14" s="22">
         <v>11</v>
@@ -2614,28 +2614,28 @@
       <c r="AB14" s="40"/>
       <c r="AC14" s="40"/>
       <c r="AE14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF14" s="2">
         <f>(AF9*5)/100</f>
         <v>4.5</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AH14" s="2">
         <f>(AH9*0)/100</f>
         <v>0</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ14" s="2">
         <f>(AJ9*0)/100</f>
         <v>0</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -2651,12 +2651,12 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="112"/>
       <c r="H15" s="11"/>
       <c r="I15" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="22">
         <v>12</v>
@@ -2685,7 +2685,7 @@
       <c r="AB15" s="40"/>
       <c r="AC15" s="40"/>
       <c r="AE15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF15" s="2">
         <f>AF12-AF14</f>
@@ -2719,11 +2719,11 @@
         <v>1</v>
       </c>
       <c r="G16" s="112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="42">
         <v>13</v>
@@ -2732,25 +2732,25 @@
         <v>12</v>
       </c>
       <c r="L16" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M16" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N16" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="57" t="s">
-        <v>94</v>
-      </c>
       <c r="R16" s="122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="B17" s="5">
         <v>15</v>
@@ -2770,15 +2770,15 @@
         <v>4</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="83" t="s">
         <v>129</v>
-      </c>
-      <c r="F17" s="83" t="s">
-        <v>130</v>
       </c>
       <c r="G17" s="112"/>
       <c r="H17" s="11"/>
       <c r="I17" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="42">
         <v>14</v>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="L17" s="42"/>
       <c r="M17" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N17" s="44">
         <f>N10*5</f>
@@ -2807,10 +2807,10 @@
         <v>0.19999999999999929</v>
       </c>
       <c r="R17" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF17" s="133">
         <f>AF15+AH15+AJ15</f>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="5">
         <v>16</v>
@@ -2835,12 +2835,12 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="112"/>
       <c r="H18" s="11"/>
       <c r="I18" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="45">
         <v>15</v>
@@ -2850,25 +2850,25 @@
       </c>
       <c r="L18" s="45"/>
       <c r="M18" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N18" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O18" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P18" s="130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="131"/>
       <c r="R18" s="106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5">
         <v>17</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="83">
         <v>2</v>
@@ -2886,7 +2886,7 @@
       <c r="G19" s="112"/>
       <c r="H19" s="11"/>
       <c r="I19" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" s="45">
         <v>16</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="L19" s="45"/>
       <c r="M19" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N19" s="47">
         <f>3*N10</f>
@@ -2915,7 +2915,7 @@
         <v>1.5400329489291602</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF19" s="134">
         <f>(AF17*5)/100</f>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5">
         <v>18</v>
@@ -2940,12 +2940,12 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="112"/>
       <c r="H20" s="15"/>
       <c r="I20" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J20" s="22">
         <v>22</v>
@@ -2972,33 +2972,33 @@
         <v>14.65996705107084</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF20" s="3">
         <f>(AF15*5)/100</f>
         <v>4.0750000000000002</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AH20" s="3">
         <f>(AH15*5)/100</f>
         <v>4.2679999999999998</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AJ20" s="3">
         <f>(AJ15*5)/100</f>
         <v>4.2679999999999998</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="5">
         <v>19</v>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="83">
         <v>2</v>
@@ -3016,7 +3016,7 @@
       <c r="G21" s="112"/>
       <c r="H21" s="15"/>
       <c r="I21" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J21" s="22">
         <v>23</v>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="Y21" s="17"/>
       <c r="AE21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF21" s="3">
         <f>AF15-AF20</f>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="22" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="98">
         <v>22</v>
@@ -3081,7 +3081,7 @@
       <c r="G22" s="114"/>
       <c r="H22" s="15"/>
       <c r="I22" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22" s="22">
         <v>20</v>
@@ -3104,7 +3104,7 @@
         <v>18</v>
       </c>
       <c r="R22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y22" s="17"/>
     </row>
@@ -3127,7 +3127,7 @@
       <c r="G23" s="115"/>
       <c r="H23" s="15"/>
       <c r="I23" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="22">
         <v>21</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="S23" s="41"/>
       <c r="AE23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF23" s="135">
         <f>AF21+AH21+AJ21</f>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5">
         <v>23</v>
@@ -3184,11 +3184,11 @@
         <v>631.4799999999999</v>
       </c>
       <c r="G24" s="116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J24" s="49">
         <v>17</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="L24" s="49"/>
       <c r="M24" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N24" s="50">
         <f>((N14-N17-N19)/($F$25-$F$26-$F$27))*$F$28</f>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="5">
         <v>24</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="G25" s="116"/>
       <c r="I25" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J25" s="51">
         <v>19</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="L25" s="51"/>
       <c r="M25" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N25" s="52">
         <f>((N14-N17-N19)/($F$25-$F$26-$F$27))*$F$29</f>
@@ -3264,7 +3264,7 @@
         <v>0.29319934102141676</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF25" s="4">
         <f>(6/AF23)*100</f>
@@ -3273,18 +3273,18 @@
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL25" s="132"/>
       <c r="AM25" s="132"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="42">
         <v>25</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="G26" s="117"/>
       <c r="I26" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26" s="53">
         <v>18</v>
@@ -3311,19 +3311,19 @@
       <c r="L26" s="53"/>
       <c r="M26" s="53"/>
       <c r="N26" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O26" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P26" s="67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF26" s="3">
         <f>(AF21*AF25)/100</f>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="45">
         <v>26</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="G27" s="118"/>
       <c r="I27" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" s="73">
         <v>24</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="28" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="49">
         <v>27</v>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="63">
         <f>(F25-F26-F27)*F19/100</f>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="G28" s="119"/>
       <c r="I28" s="76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J28" s="77">
         <v>24</v>
@@ -3436,7 +3436,7 @@
         <v>22</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF28" s="3">
         <f>AF21+AF26</f>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="51">
         <v>28</v>
@@ -3466,17 +3466,17 @@
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" s="65">
         <f>(F25-F26-F27)*F21/100</f>
         <v>12.6296</v>
       </c>
       <c r="G29" s="120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF29" s="3">
         <f>AF28/AF5</f>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="73">
         <v>29</v>
@@ -3526,13 +3526,13 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="112"/>
     </row>
     <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="108">
         <v>30</v>
@@ -3543,7 +3543,7 @@
       <c r="D32" s="108"/>
       <c r="E32" s="108"/>
       <c r="F32" s="109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="112"/>
     </row>
@@ -3567,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3579,33 +3579,33 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
         <v>141</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
